--- a/src/data/data-pdg.xlsx
+++ b/src/data/data-pdg.xlsx
@@ -1,145 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">autonomous_community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criminal_ofense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cybersecurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrested_investigated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andalucía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aragón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asturias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baleares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canarias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantabria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castilla y León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castilla-La Mancha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cataluña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunitat Valenciana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extremadura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galicia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">País Vasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Rioja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melilla</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+  <si>
+    <t>autonomous_community</t>
+  </si>
+  <si>
+    <t>criminal_ofense</t>
+  </si>
+  <si>
+    <t>cybersecurity</t>
+  </si>
+  <si>
+    <t>arrested_investigated</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>Aragon</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>Baleares</t>
+  </si>
+  <si>
+    <t>Canarias</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Castilla y Leon</t>
+  </si>
+  <si>
+    <t>Castilla-La Mancha</t>
+  </si>
+  <si>
+    <t>Cataluña</t>
+  </si>
+  <si>
+    <t>Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Murcia</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>Pais Vasco</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Ceuta</t>
+  </si>
+  <si>
+    <t>Melilla</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,77 +129,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr lastClr="ffffff" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1f497d"/>
@@ -247,7 +241,7 @@
         <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -255,1551 +249,1892 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="6">
         <v>1766779</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="6">
         <v>287963</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="6">
         <v>11280</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="6">
         <v>287594</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="6">
         <v>39157</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="6">
         <v>2104</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="6">
         <v>36024</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="6">
         <v>7826</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="6">
         <v>297</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="6">
         <v>24324</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="6">
         <v>6225</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="6">
         <v>191</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="6">
         <v>59750</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="6">
         <v>11800</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="6">
         <v>167</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="6">
         <v>83635</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="6">
         <v>14449</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="6">
         <v>512</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="6">
         <v>16585</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="6">
         <v>2885</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="6">
         <v>93</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="6">
         <v>65025</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="6">
         <v>15457</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="6">
         <v>531</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="6">
         <v>61908</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="6">
         <v>9963</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="6">
         <v>751</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="6">
         <v>353052</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="6">
         <v>48794</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="6">
         <v>647</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="6">
         <v>193222</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="6">
         <v>25732</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="6">
         <v>1142</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="6">
         <v>25041</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="6">
         <v>4638</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="6">
         <v>257</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="6">
         <v>73344</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="6">
         <v>14632</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="6">
         <v>459</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="6">
         <v>310194</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="6">
         <v>48678</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="6">
         <v>1253</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="6">
         <v>50969</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="6">
         <v>6828</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="6">
         <v>354</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="6">
         <v>23596</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="6">
         <v>4465</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="6">
         <v>111</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="6">
         <v>77176</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="6">
         <v>17866</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="6">
         <v>2292</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="6">
         <v>7827</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="6">
         <v>1992</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="6">
         <v>85</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="6">
         <v>3648</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="6">
         <v>436</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="6">
         <v>4470</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="6">
         <v>414</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="6">
         <v>15</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="6">
         <v>1957719</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="6">
         <v>305477</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="6">
         <v>13801</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="6">
         <v>314894</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="6">
         <v>42493</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="6">
         <v>2212</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="6">
         <v>41796</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="6">
         <v>8461</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="6">
         <v>345</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="6">
         <v>26340</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="6">
         <v>6906</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="6">
         <v>235</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="6">
         <v>61015</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="6">
         <v>8294</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="6">
         <v>253</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="6">
         <v>81232</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="6">
         <v>10875</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="6">
         <v>571</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="6">
         <v>19894</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="6">
         <v>3782</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="6">
         <v>149</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="6">
         <v>74008</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="6">
         <v>16680</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="6">
         <v>605</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="6">
         <v>67412</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="6">
         <v>11657</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="6">
         <v>1063</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="6">
         <v>390356</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="6">
         <v>49755</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="6">
         <v>753</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="6">
         <v>225337</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="6">
         <v>29508</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="6">
         <v>1346</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="6">
         <v>27266</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="6">
         <v>5538</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="6">
         <v>323</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="6">
         <v>88255</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="6">
         <v>22010</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="6">
         <v>591</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="6">
         <v>345987</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="6">
         <v>53039</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="6">
         <v>1488</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="6">
         <v>57974</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="6">
         <v>8009</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="6">
         <v>415</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="6">
         <v>26719</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="6">
         <v>4362</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="6">
         <v>97</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="6">
         <v>84781</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="6">
         <v>16798</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="6">
         <v>3220</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="6">
         <v>9115</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="6">
         <v>2104</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="6">
         <v>90</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="6">
         <v>3916</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="6">
         <v>516</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="6">
         <v>27</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="6">
         <v>4116</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="6">
         <v>435</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="6">
         <v>18</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="6">
         <v>2323075</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="6">
         <v>374737</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="6">
         <v>15097</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="6">
         <v>379133</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="6">
         <v>56908</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="6">
         <v>2607</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="6">
         <v>47889</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="6">
         <v>9620</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="6">
         <v>368</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="6">
         <v>32093</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="6">
         <v>8560</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="6">
         <v>249</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="6">
         <v>75982</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="6">
         <v>8701</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="6">
         <v>224</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="6">
         <v>95451</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="6">
         <v>13684</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="6">
         <v>528</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="6">
         <v>23709</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="6">
         <v>4806</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="6">
         <v>185</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="6">
         <v>86844</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="6">
         <v>21302</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="6">
         <v>722</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="6">
         <v>80842</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="6">
         <v>15649</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="6">
         <v>891</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="6">
         <v>475031</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="6">
         <v>63877</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="6">
         <v>1570</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+      <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="6">
         <v>262971</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="6">
         <v>34005</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="6">
         <v>1320</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+      <c r="A53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="6">
         <v>32093</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="6">
         <v>7528</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="6">
         <v>332</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+      <c r="A54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="6">
         <v>94904</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="6">
         <v>20914</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="6">
         <v>560</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+      <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="6">
         <v>401924</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="6">
         <v>63758</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="6">
         <v>1820</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+      <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="6">
         <v>68717</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="6">
         <v>9971</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="6">
         <v>474</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+      <c r="A57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="6">
         <v>33409</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="6">
         <v>5499</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="6">
         <v>93</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+      <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="6">
         <v>101756</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="6">
         <v>20907</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="6">
         <v>3049</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+      <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="6">
         <v>11754</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="6">
         <v>2433</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="6">
         <v>60</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+      <c r="A60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="6">
         <v>3635</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="6">
         <v>567</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="6">
         <v>20</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
+      <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="6">
         <v>4309</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="6">
         <v>405</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="6">
         <v>25</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+      <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="6">
         <v>2464759</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="6">
         <v>472125</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="6">
         <v>17173</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+      <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="6">
         <v>413181</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="6">
         <v>81315</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="6">
         <v>3333</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+      <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="6">
         <v>50865</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="6">
         <v>12184</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="6">
         <v>558</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
+      <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="6">
         <v>33888</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="6">
         <v>8647</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="6">
         <v>160</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+      <c r="A66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="6">
         <v>78509</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="6">
         <v>11482</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="6">
         <v>239</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
+      <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="6">
         <v>104222</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="6">
         <v>17668</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="6">
         <v>474</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
+      <c r="A68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="6">
         <v>24212</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="6">
         <v>5968</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="6">
         <v>213</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
+      <c r="A69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="6">
         <v>89824</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="6">
         <v>25540</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="6">
         <v>917</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="6">
         <v>2023</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
+      <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="6">
         <v>83708</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="6">
         <v>19454</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="6">
         <v>938</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
+      <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="6">
         <v>510172</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="6">
         <v>76126</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="6">
         <v>1925</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
+      <c r="A72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="6">
         <v>287379</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="6">
         <v>47056</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="6">
         <v>1499</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
+      <c r="A73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="6">
         <v>35269</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="6">
         <v>8817</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="6">
         <v>360</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="6">
         <v>2023</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="F73" s="3"/>
+      <c r="G73" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="H73" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
+      <c r="A74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="6">
         <v>94800</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="6">
         <v>21730</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="6">
         <v>634</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
+      <c r="A75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="6">
         <v>411782</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="6">
         <v>78877</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="6">
         <v>2079</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
+      <c r="A76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="6">
         <v>74194</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="6">
         <v>13747</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="6">
         <v>503</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
+      <c r="A77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="6">
         <v>35094</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="6">
         <v>7474</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="6">
         <v>141</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
+      <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="6">
         <v>107823</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="6">
         <v>27899</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="6">
         <v>3072</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
+      <c r="A79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="6">
         <v>12152</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="6">
         <v>2364</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="6">
         <v>92</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
+      <c r="A80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="6">
         <v>3541</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="6">
         <v>592</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="6">
         <v>19</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5">
+      <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="6">
         <v>4357</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="6">
         <v>481</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="6">
         <v>17</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H157" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>